--- a/t-shirt/gr/T-shirt organizer 2.0 GR.xlsx
+++ b/t-shirt/gr/T-shirt organizer 2.0 GR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>Personal Air Purifier Necklace</t>
   </si>
@@ -62,295 +62,419 @@
     <t>Δεν παίρνει</t>
   </si>
   <si>
+    <t>πολύ χώρο</t>
+  </si>
+  <si>
+    <t>Κατάλληλο για όλα τα είδη ρούχων και πετσετών</t>
+  </si>
+  <si>
+    <t>ΠΑΡΑΓΓΕΛΙΑ ΜΕ ΕΚΠΤΩΣΗ</t>
+  </si>
+  <si>
+    <t>Έμειναν</t>
+  </si>
+  <si>
+    <t>σε προσφορά:</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>τεμ.</t>
+  </si>
+  <si>
+    <t>ΠΛΕΟΝΕΚΤΗΜΑΤΑ</t>
+  </si>
+  <si>
+    <t>Πολύ γρήγορα</t>
+  </si>
+  <si>
+    <t>διπλώνονται τα ρούχα</t>
+  </si>
+  <si>
+    <t>Τα ρούχα σας</t>
+  </si>
+  <si>
+    <t>δεν τσαλακώνονται</t>
+  </si>
+  <si>
+    <t>Εξοικονόμηση χώρου</t>
+  </si>
+  <si>
+    <t>στο ντουλάπι σας</t>
+  </si>
+  <si>
+    <t>Το μέγεθος των ρούχων</t>
+  </si>
+  <si>
+    <t xml:space="preserve">θα είναι </t>
+  </si>
+  <si>
+    <t>πάντα ένα</t>
+  </si>
+  <si>
+    <t>Είναι κατασκευασμένο από</t>
+  </si>
+  <si>
+    <t>ειδικό αντιολισθητικό</t>
+  </si>
+  <si>
+    <t>πλαστικό υλικό</t>
+  </si>
+  <si>
+    <t>Μπορούν να διπλωθούν με τον ίδιο τρόπο</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">και άλλα </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">ρούχα </t>
+    </r>
+    <r>
+      <t>όπως</t>
+    </r>
+  </si>
+  <si>
+    <t>παντελόνια, πουλόβερ, τζιν,</t>
+  </si>
+  <si>
+    <t>πετσέτες κ.λπ.</t>
+  </si>
+  <si>
+    <t>ΠΑΡΑΚΟΛΟΥΘΕΙΣΤΕ ΤΟ ΒΙΝΤΕΟ</t>
+  </si>
+  <si>
+    <t>ΙΔΑΝΙΚΗ ΤΑΚΤΟΠΟΙΗΣΗ ΣΤΟ ΝΤΟΥΛΑΠΙ ΣΑΣ</t>
+  </si>
+  <si>
+    <t>с T-shirt organizer 2.0!</t>
+  </si>
+  <si>
+    <t>Το T-shirt organizer 2.0 έχει σχεδιαστεί</t>
+  </si>
+  <si>
+    <t>για να βοηθά τις νοικοκυρές</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, που αγαπούν την τακτοποίηση στις ντουλάπες και αξιοποιούν σωστά το χρόνο τους. </t>
+  </si>
+  <si>
+    <t>Θα σας βοηθήσει να διπλώσετε</t>
+  </si>
+  <si>
+    <t>τα μπλουζάκια, τα πουκάμισα, τα πουλόβερ μέσα σε λίγα λεπτά!</t>
+  </si>
+  <si>
+    <t>Με αυτήν τη κατασκευή, η διαδικασία αναδίπλωσης θα γίνεται πιο γρήγορα και πλέον δεν θα βασανίζεστε.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ξεχάστε πλέον τα τσαλακωμένα ρούχα. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ξεχάστε πλέον τα </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">βοηθητικά </t>
+    </r>
+    <r>
+      <t>χαρτόνια αναδίπλωσης. Χρησιμοποιήστε την ανθεκτική κατασκευή.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Η ΑΝΑΔΙΠΛΩΣΗ ΤΩΝ ΡΟΥΧΩΝ ΜΕ ΤΟ T-SHIRT ORGANISER 2.0 </t>
+  </si>
+  <si>
+    <t>EINAI EΥΚΟΛΗ</t>
+  </si>
+  <si>
+    <t>1 ΒΗΜΑ</t>
+  </si>
+  <si>
+    <t>Τοποθετήστε τα ρούχα στο πλαίσιο με την όψη προς τα κάτω</t>
+  </si>
+  <si>
+    <t>2 ΒΗΜΑ</t>
+  </si>
+  <si>
+    <t>Λυγίστε τα μανίκια με τη σειρά</t>
+  </si>
+  <si>
+    <t>3 ΒΗΜΑ</t>
+  </si>
+  <si>
+    <t>Αναδιπλώνουμε το κεντρικό μέρος προς τα εμάς</t>
+  </si>
+  <si>
+    <t>4 ΒΗΜΑ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Το αναδιπλωμένο ρούχο στο ντουλάπι σας θα είναι όπως στα καταστήματα </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t>ρούχων</t>
+    </r>
+    <r>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ΠΛΕΟΝ ΤΟ ΠΡΟΒΛΗΜΑ ΤΟΥ ΠΩΣ ΝΑ ΑΝΑΔΙΠΛΩΣΕΤΕ ΤΑ ΡΟΥΧΑ ΣΑΣ </t>
+  </si>
+  <si>
+    <t>ΓΡΗΓΟΡΑ ΛΥΘΗΚΕ ΜΙΑ ΓΙΑ ΠΑΝΤΑ!</t>
+  </si>
+  <si>
+    <t>Το T-shirt organizer 2.0</t>
+  </si>
+  <si>
+    <t>, είναι κατασκευασμένο από ανθεκτικό πλαστικό υψηλής ποιότητας. Είναι εξοπλισμένο με τρία κινούμενα μέρη, κλείνοντάς τα ένα προς ένα, τα οποία μπορείτε γρήγορα και εύκολα να αναδιπλώσετε σωστά οποιοδήποτε ρούχο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Είναι πολύ συμπαγές και διακρίνεται από το χαμηλό βάρος του, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">οπότε μπορείτε εύκολα να το πάρετε μαζί σας </t>
+  </si>
+  <si>
+    <t>στις διακοπές ή ένα επαγγελματικό ταξίδι, εξοικονομώντας έτσι χρόνο και με ευκολία αναδιπλώνετε τα ρούχα σας.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ΙΔΙΑΙΤΕΡΟΤΗΤΕΣ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t>ΤΟΥ</t>
+    </r>
+  </si>
+  <si>
+    <t>Κατασκευασμένο από ανθεκτικό και εύκαμπτο πλαστικό</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Σχεδιασμένο </t>
+  </si>
+  <si>
+    <t xml:space="preserve">για αναδιπλώμενα μπλουζάκια, </t>
+  </si>
+  <si>
+    <t>πουλόβερ και άλλα ρούχα</t>
+  </si>
+  <si>
+    <t>Αναδιπλώνει τα ρούχα σε 3 δευτερόλεπτα</t>
+  </si>
+  <si>
+    <t>Ειδικά κατασκευασμένο για τον εξαερισμό των ρούχων</t>
+  </si>
+  <si>
+    <t>Ιδανικό για την εκμάθηση των παιδιών να τακτοποιούν και να μαθαίνουν πώς να αναδιπλώνουν τα ρούχα</t>
+  </si>
+  <si>
+    <t>Συμπαγής, καταλαμβάνει λίγο χώρο</t>
+  </si>
+  <si>
+    <t>ΧΑΡΑΚΤΗΡΙΣΤΙΚΑ</t>
+  </si>
+  <si>
+    <t>Το μέγεθος</t>
+  </si>
+  <si>
+    <t>διπλωμένο:</t>
+  </si>
+  <si>
+    <t>40*16*0,8 cm</t>
+  </si>
+  <si>
+    <t>Ξεδιπλωμένο μέγεθος:</t>
+  </si>
+  <si>
+    <t>40*48*0,4 cm</t>
+  </si>
+  <si>
+    <t>Βάρος:</t>
+  </si>
+  <si>
+    <t>0,3 kg</t>
+  </si>
+  <si>
+    <t>ΚΡΙΤΙΚΕΣ</t>
+  </si>
+  <si>
+    <t>ΠΕΛΑΤΩΝ</t>
+  </si>
+  <si>
+    <t>Όλγα</t>
+  </si>
+  <si>
+    <t>58 ετών</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Πολύ ωραίο και χρήσιμο πράγμα! Η ποιότητα του πλαστικού είναι πολύ καλή, θα κρατήσει για αρκετό καιρό. Το χάρησα στην εγγονή μου, τώρα η μητέρα της είναι πολύ χαρούμενη, πλέον στην εγγονή μου αρέσει να </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">αναδιπλώνει </t>
+    </r>
+    <r>
+      <t>τα ρούχα της.</t>
+    </r>
+  </si>
+  <si>
+    <t>Μαρία</t>
+  </si>
+  <si>
+    <t>38 ετών</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Παρήγγειλα το T-shirt organizer 2.0 σε αυτό το κατάστημα μόλις το είδα. Η παράδοση ήρθε γρήγορα, μέσα σε 3 ημέρες. Το T-shirt organizer 2.0 είναι πολύ βολικό, εξοικονομώ πολύ χρόνο για την αναδίπλωση των ρούχων, και για μια εργαζόμενη μαμά είναι πολύ σημαντικό. Για τα παιδιά </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">είναι </t>
+    </r>
+    <r>
+      <t xml:space="preserve">πολύ ενδιαφέρον και τώρα με βοηθούν στην αναδίπλωση των ρούχων. Το συμβουλεύω σε όσους δεν έχουν αρκετό </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">ελεύθερο </t>
+    </r>
+    <r>
+      <t>χρόνο!</t>
+    </r>
+  </si>
+  <si>
+    <t>Κατερίνα</t>
+  </si>
+  <si>
+    <t>26 ετών</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Μου αρέσει πολύ η τακτοποίηση, και ειδικά στην ντουλάπα μου, αλλά ποτέ δεν κατάφερα να αναδιπλώσω τα ρούχα μου ακριβώς έτσι ώστε είναι </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t>στα καταστήματα ρούχων.</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Και την περασμένη εβδομάδα, η μητέρα μου μου χάρησε το T-shirt organizer 2.0 και ξετρελάθηκα! Τώρα η ντουλάπα μου είναι </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t>τακτοποιημένη</t>
+    </r>
+    <r>
+      <t xml:space="preserve">! Τα </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t>ρούχα μου δεν τσαλακώνονται πλέον</t>
+    </r>
+    <r>
+      <t xml:space="preserve">, όλα αναδιπλώνονται στο ίδιο μέγεθος, σε τέλειες </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t>στοιβάδες</t>
+    </r>
+    <r>
+      <t>. Όποιος δεν το έχει ακόμη, παραγγείλτε το επειγόντως, δεν θα το μετανιώσετε !!!!</t>
+    </r>
+  </si>
+  <si>
+    <t>ΠΩΣ ΝΑ ΚΑΝΩ</t>
+  </si>
+  <si>
+    <t>ΤΗΝ ΠΑΡΑΓΓΕΛΙΑ?</t>
+  </si>
+  <si>
+    <t>Βήμα 1</t>
+  </si>
+  <si>
+    <t>ΑΙΤΗΜΑ</t>
+  </si>
+  <si>
+    <t>Αφήστε ένα αίτημα στην ιστοσελίδα μας</t>
+  </si>
+  <si>
+    <t>Βήμα 2</t>
+  </si>
+  <si>
+    <t>ΚΛΗΣΗ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ο διευθυντής διευκρινίζει τις λεπτομέρειες </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">της </t>
+    </r>
+    <r>
+      <t>παραγγελίας</t>
+    </r>
+  </si>
+  <si>
+    <t>Βήμα 3</t>
+  </si>
+  <si>
+    <t>ΑΠΟΣΤΟΛΗ</t>
+  </si>
+  <si>
+    <t>Παραδίδουμε την παραγγελία εντός 3-7 εργάσιμων ημερών</t>
+  </si>
+  <si>
+    <t>Βήμα 4</t>
+  </si>
+  <si>
+    <t>ΠΑΡΑΔΟΣΗ</t>
+  </si>
+  <si>
+    <t>Πληρωμή κατά την παραλαβή</t>
+  </si>
+  <si>
+    <t>ΜΈΧΡΙ ΤΟ ΤΕΛΟΣ ΤΗΣ ΠΡΟΣΦΟΡΑΣ:</t>
+  </si>
+  <si>
     <t>πολύς χώρος</t>
   </si>
   <si>
-    <t>Κατάλληλο για όλα τα είδη ρούχων και πετσετών</t>
-  </si>
-  <si>
-    <t>ΠΑΡΑΓΓΕΛΙΑ ΜΕ ΕΚΠΤΩΣΗ</t>
-  </si>
-  <si>
-    <t>Έμειναν</t>
-  </si>
-  <si>
-    <t>σε προσφορά:</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>τεμ.</t>
-  </si>
-  <si>
-    <t>ΠΛΕΟΝΕΚΤΗΜΑΤΑ</t>
-  </si>
-  <si>
-    <t>Πολύ γρήγορα</t>
-  </si>
-  <si>
-    <t>διπλώνονται τα ρούχα</t>
-  </si>
-  <si>
-    <t>Τα ρούχα σας</t>
-  </si>
-  <si>
-    <t>δεν τσαλακώνονται</t>
-  </si>
-  <si>
-    <t>Εξοικονόμηση χώρου</t>
-  </si>
-  <si>
-    <t>για την φύλαξη</t>
-  </si>
-  <si>
-    <t>Το μέγεθος των ρούχων</t>
-  </si>
-  <si>
-    <t xml:space="preserve">θα είναι </t>
-  </si>
-  <si>
-    <t>πάντα ένα</t>
-  </si>
-  <si>
-    <t>Είναι κατασκευασμένο από</t>
-  </si>
-  <si>
-    <t>ειδικό αντιολισθητικό</t>
-  </si>
-  <si>
-    <t>πλαστικό υλικό</t>
-  </si>
-  <si>
-    <t>Μπορούν να διπλωθούν με τον ίδιο τρόπο</t>
-  </si>
-  <si>
-    <t>και άλλα πράγματα όπως</t>
-  </si>
-  <si>
-    <t>παντελόνια, πουλόβερ, τζιν,</t>
-  </si>
-  <si>
-    <t>πετσέτες κ.λπ.</t>
-  </si>
-  <si>
-    <t>ΠΑΡΑΚΟΛΟΥΘΕΙΣΤΕ ΤΟ ΒΙΝΤΕΟ</t>
-  </si>
-  <si>
-    <t>ΙΔΑΝΙΚΗ ΤΑΚΤΟΠΟΙΗΣΗ ΣΤΟ ΝΤΟΥΛΑΠΙ ΣΑΣ</t>
-  </si>
-  <si>
-    <t>с T-shirt organizer 2.0!</t>
-  </si>
-  <si>
-    <t>Το T-shirt organizer 2.0 έχει σχεδιαστεί</t>
-  </si>
-  <si>
-    <t>για να βοηθά τις νοικοκυρές</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, που αγαπούν την τακτοποίηση στις ντουλάπες και αξιοποιούν σωστά το χρόνο τους. </t>
-  </si>
-  <si>
-    <t>Θα σας βοηθήσει να διπλώσετε</t>
-  </si>
-  <si>
-    <t>τα μπλουζάκια, τα πουκάμισα, τα πουλόβερ μέσα σε λίγα λεπτά!</t>
-  </si>
-  <si>
-    <t>Με αυτήν τη κατασκευή, η διαδικασία αναδίπλωσης θα γίνεται πιο γρήγορα και πλέον δεν θα βασανίζεστε.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ξεχάστε πλέον τα τσαλακωμένα ρούχα. </t>
-  </si>
-  <si>
-    <t>Ξεχάστε πλέον τα ειδικά χαρτόνια αναδίπλωσης. Χρησιμοποιήστε την ανθεκτική κατασκευή.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Η ΑΝΑΔΙΠΛΩΣΗ ΤΩΝ ΡΟΥΧΩΝ ΜΕ ΤΟ T-SHIRT ORGANISER 2.0 </t>
-  </si>
-  <si>
-    <t>EINAI EΥΚΟΛΗ</t>
-  </si>
-  <si>
-    <t>1 ΒΗΜΑ</t>
-  </si>
-  <si>
-    <t>Τοποθετήστε τα ρούχα στο πλαίσιο με την όψη προς τα κάτω</t>
-  </si>
-  <si>
-    <t>2 ΒΗΜΑ</t>
-  </si>
-  <si>
-    <t>Λυγίστε τα μανίκια με τη σειρά</t>
-  </si>
-  <si>
-    <t>3 ΒΗΜΑ</t>
-  </si>
-  <si>
-    <t>Αναδιπλώνουμε το κεντρικό μέρος προς τα εμάς</t>
-  </si>
-  <si>
-    <t>4 ΒΗΜΑ</t>
-  </si>
-  <si>
-    <t>Το αναδιπλωμένο ρούχο στο ντουλάπι σας θα είναι όπως στα καταστήματα!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΠΛΕΟΝ ΤΟ ΠΡΟΒΛΗΜΑ ΤΟΥ ΠΩΣ ΝΑ ΑΝΑΔΙΠΛΩΣΕΤΕ ΤΑ ΡΟΥΧΑ ΣΑΣ </t>
-  </si>
-  <si>
-    <t>ΓΡΗΓΟΡΑ ΛΥΘΗΚΕ ΜΙΑ ΓΙΑ ΠΑΝΤΑ!</t>
-  </si>
-  <si>
-    <t>Το T-shirt organizer 2.0</t>
-  </si>
-  <si>
-    <t>, είναι κατασκευασμένο από ανθεκτικό πλαστικό υψηλής ποιότητας. Είναι εξοπλισμένο με τρία κινούμενα μέρη, κλείνοντάς τα ένα προς ένα, τα οποία μπορείτε γρήγορα και εύκολα να αναδιπλώσετε σωστά οποιοδήποτε ρούχο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Είναι πολύ συμπαγές και διακρίνεται από το χαμηλό βάρος του, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">οπότε μπορείτε εύκολα να το πάρετε μαζί σας </t>
-  </si>
-  <si>
-    <t>στις διακοπές ή ένα επαγγελματικό ταξίδι, εξοικονομώντας έτσι χρόνο και με ευκολία αναδιπλώνετε τα ρούχα σας.</t>
-  </si>
-  <si>
-    <t>ΙΔΙΑΙΤΕΡΟΤΗΤΕΣ</t>
-  </si>
-  <si>
-    <t>Κατασκευασμένο από ανθεκτικό και εύκαμπτο πλαστικό</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Σχεδιασμένο </t>
-  </si>
-  <si>
-    <t xml:space="preserve">για αναδιπλώμενα μπλουζάκια, </t>
-  </si>
-  <si>
-    <t>πουλόβερ και άλλα ρούχα</t>
-  </si>
-  <si>
-    <t>Αναδιπλώνει τα ρούχα σε 3 δευτερόλεπτα</t>
-  </si>
-  <si>
-    <t>Ειδικά κατασκευασμένο για τον εξαερισμό των ρούχων</t>
-  </si>
-  <si>
-    <t>Ιδανικό για την εκμάθηση των παιδιών να τακτοποιούν και να μαθαίνουν πώς να αναδιπλώνουν τα ρούχα</t>
-  </si>
-  <si>
-    <t>Συμπαγής, καταλαμβάνει λίγο χώρο</t>
-  </si>
-  <si>
-    <t>ΧΑΡΑΚΤΗΡΙΣΤΙΚΑ</t>
-  </si>
-  <si>
-    <t>Το μέγεθος</t>
-  </si>
-  <si>
-    <t>διπλωμένο:</t>
-  </si>
-  <si>
-    <t>40*16*0,8 cm</t>
-  </si>
-  <si>
-    <t>Ξεδιπλωμένο μέγεθος:</t>
-  </si>
-  <si>
-    <t>40*48*0,4 cm</t>
-  </si>
-  <si>
-    <t>Βάρος:</t>
-  </si>
-  <si>
-    <t>0,3 kg</t>
-  </si>
-  <si>
-    <t>ΚΡΙΤΙΚΕΣ</t>
-  </si>
-  <si>
-    <t>ΠΕΛΑΤΩΝ</t>
-  </si>
-  <si>
-    <t>Όλγα</t>
-  </si>
-  <si>
-    <t>58 ετών</t>
-  </si>
-  <si>
-    <t>Πολύ ωραίο και χρήσιμο πράγμα! Η ποιότητα του πλαστικού είναι πολύ καλή, θα κρατήσει για αρκετό καιρό. Το χάρησα στην εγγονή μου, τώρα η μητέρα της είναι πολύ χαρούμενη, πλέον στην εγγονή μου αρέσει να αναδιπλώνουν τα ρούχα της.</t>
-  </si>
-  <si>
-    <t>Μαρία</t>
-  </si>
-  <si>
-    <t>38 ετών</t>
-  </si>
-  <si>
-    <t>Παρήγγειλα το T-shirt organizer 2.0 σε αυτό το κατάστημα μόλις το είδα. Η παράδοση ήρθε γρήγορα, μέσα σε 3 ημέρες. Το T-shirt organizer 2.0 είναι πολύ βολικό, εξοικονομώ πολύ χρόνο για την αναδίπλωση των ρούχων, και για μια εργαζόμενη μαμά είναι πολύ σημαντικό. Για τα παιδιά ήταν πολύ ενδιαφέρον και τώρα με βοηθούν στην αναδίπλωση των ρούχων. Το συμβουλεύω σε όσους δεν έχουν αρκετό χρόνο!</t>
-  </si>
-  <si>
-    <t>Κατερίνα</t>
-  </si>
-  <si>
-    <t>26 ετών</t>
-  </si>
-  <si>
-    <t>Μου αρέσει πολύ η τακτοποίηση, και ειδικά στην ντουλάπα μου, αλλά ποτέ δεν κατάφερα να αναδιπλώσω τα ρούχα μου ακριβώς έτσι ώστε είναι ένα προς ένα στα καταστήματα. Και την περασμένη εβδομάδα, η μητέρα μου μου χάρησε το T-shirt organizer 2.0 και ξετρελάθηκα! Τώρα η ντουλάπα μου φαίνεται τέλεια! Τα ρούχα δεν τσαλακώνονται, όλα αναδιπλώνονται στο ίδιο μέγεθος, σε τέλειες στοίβες. Όποιος δεν το έχει ακόμη, παραγγείλτε το επειγόντως, δεν θα το μετανιώσετε !!!!</t>
-  </si>
-  <si>
-    <t>ΠΩΣ ΝΑ ΚΑΝΩ</t>
-  </si>
-  <si>
-    <t>ΤΗΝ ΠΑΡΑΓΓΕΛΙΑ?</t>
-  </si>
-  <si>
-    <t>Βήμα 1</t>
-  </si>
-  <si>
-    <t>ΑΙΤΗΜΑ</t>
-  </si>
-  <si>
-    <t>Αφήστε ένα αίτημα στην ιστοσελίδα μας</t>
-  </si>
-  <si>
-    <t>Βήμα 2</t>
-  </si>
-  <si>
-    <t>ΚΛΗΣΗ</t>
-  </si>
-  <si>
-    <t>Ο διευθυντής διευκρινίζει τις λεπτομέρειες παραγγελίας</t>
-  </si>
-  <si>
-    <t>Βήμα 3</t>
-  </si>
-  <si>
-    <t>ΑΠΟΣΤΟΛΗ</t>
-  </si>
-  <si>
-    <t>Παραδίδουμε την παραγγελία εντός 3-7 εργάσιμων ημερών</t>
-  </si>
-  <si>
-    <t>Βήμα 4</t>
-  </si>
-  <si>
-    <t>ΠΑΡΑΔΟΣΗ</t>
-  </si>
-  <si>
-    <t>Πληρωμή κατά την παραλαβή</t>
-  </si>
-  <si>
-    <t>ΜΈΧΡΙ ΤΟ ΤΕΛΟΣ ΤΗΣ ΠΡΟΣΦΟΡΑΣ:</t>
-  </si>
-  <si>
     <t xml:space="preserve">ΠΑΡΑΓΓΕΛΙΑ </t>
   </si>
   <si>
-    <t>E-OUTLET LLP, 26 Oktovriou, Thessaloniki, 54627 Greece</t>
+    <t>HOME GOODS LTD., 26 Oktovriou, Thessaloniki, 54627 Greece</t>
   </si>
   <si>
     <t>Privacy policy</t>
@@ -765,7 +889,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -776,9 +900,20 @@
       <color rgb="FFFF0000"/>
     </font>
     <font>
+      <color rgb="FF00FF00"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -790,17 +925,25 @@
       <color rgb="FF2B2B2B"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF666666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -815,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -826,18 +969,32 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1141,7 +1298,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1211,7 +1368,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1226,7 +1383,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1251,7 +1408,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1281,7 +1438,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1321,7 +1478,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1371,7 +1528,7 @@
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1416,7 +1573,7 @@
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1531,7 +1688,7 @@
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1546,7 +1703,7 @@
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1561,7 +1718,7 @@
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1601,7 +1758,7 @@
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1641,7 +1798,7 @@
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1717,7 +1874,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
@@ -1727,7 +1884,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
@@ -1751,2599 +1908,2599 @@
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="7" t="s">
-        <v>112</v>
+      <c r="A140" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="8"/>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="8"/>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="8"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="8"/>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="8"/>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="8"/>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="8"/>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="8"/>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="8"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="8"/>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="8"/>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="8"/>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="8"/>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="8"/>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="8"/>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="8"/>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="8"/>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="8"/>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="8"/>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="8"/>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="8"/>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="8"/>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="8"/>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="8"/>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="8"/>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="8"/>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="8"/>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="8"/>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="8"/>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="8"/>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="8"/>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="8"/>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="8"/>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="8"/>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="8"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="8"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="8"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="8"/>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="8"/>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="8"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="8"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="8"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="8"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="8"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="8"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="8"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="8"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="8"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="8"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="8"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="8"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="8"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="8"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="8"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="8"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="8"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="8"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="8"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="8"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="8"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="8"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="8"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="8"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="8"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="8"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="8"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="8"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="8"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="8"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="8"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="8"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="8"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="8"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="8"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="8"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="8"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="8"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="8"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="8"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="8"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="8"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="8"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="8"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="8"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="8"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="8"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="8"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="8"/>
+      <c r="A233" s="1"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="8"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="8"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="8"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="8"/>
+      <c r="A237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="8"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="8"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="8"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="8"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="8"/>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="8"/>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="8"/>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="8"/>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="8"/>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="8"/>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="8"/>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="8"/>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="8"/>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="8"/>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="8"/>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="8"/>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="8"/>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="8"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="8"/>
+      <c r="A256" s="1"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="8"/>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="8"/>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="8"/>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="8"/>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="8"/>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="8"/>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="8"/>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="8"/>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="8"/>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="8"/>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="8"/>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="8"/>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="8"/>
+      <c r="A269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="8"/>
+      <c r="A270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="8"/>
+      <c r="A271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="8"/>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="8"/>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="8"/>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="8"/>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="8"/>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="8"/>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="8"/>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="8"/>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="8"/>
+      <c r="A280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="8"/>
+      <c r="A281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="8"/>
+      <c r="A282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="8"/>
+      <c r="A283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="8"/>
+      <c r="A284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="8"/>
+      <c r="A285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="8"/>
+      <c r="A286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="8"/>
+      <c r="A287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="8"/>
+      <c r="A288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="8"/>
+      <c r="A289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="8"/>
+      <c r="A290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="8"/>
+      <c r="A291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="8"/>
+      <c r="A292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="8"/>
+      <c r="A293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="8"/>
+      <c r="A294" s="1"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="8"/>
+      <c r="A295" s="1"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="8"/>
+      <c r="A296" s="1"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="8"/>
+      <c r="A297" s="1"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="8"/>
+      <c r="A298" s="1"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="8"/>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="8"/>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="8"/>
+      <c r="A301" s="1"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="8"/>
+      <c r="A302" s="1"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="8"/>
+      <c r="A303" s="1"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="8"/>
+      <c r="A304" s="1"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="8"/>
+      <c r="A305" s="1"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="8"/>
+      <c r="A306" s="1"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="8"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="8"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="8"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="8"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="8"/>
+      <c r="A311" s="1"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="8"/>
+      <c r="A312" s="1"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="8"/>
+      <c r="A313" s="1"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="8"/>
+      <c r="A314" s="1"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="8"/>
+      <c r="A315" s="1"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="8"/>
+      <c r="A316" s="1"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="8"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="8"/>
+      <c r="A318" s="1"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="8"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="8"/>
+      <c r="A320" s="1"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="8"/>
+      <c r="A321" s="1"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="8"/>
+      <c r="A322" s="1"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="8"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="8"/>
+      <c r="A324" s="1"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="8"/>
+      <c r="A325" s="1"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="8"/>
+      <c r="A326" s="1"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="8"/>
+      <c r="A327" s="1"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="8"/>
+      <c r="A328" s="1"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="8"/>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="8"/>
+      <c r="A330" s="1"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="8"/>
+      <c r="A331" s="1"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="8"/>
+      <c r="A332" s="1"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="8"/>
+      <c r="A333" s="1"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="8"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="8"/>
+      <c r="A335" s="1"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="8"/>
+      <c r="A336" s="1"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="8"/>
+      <c r="A337" s="1"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="8"/>
+      <c r="A338" s="1"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="8"/>
+      <c r="A339" s="1"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="8"/>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="8"/>
+      <c r="A341" s="1"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="8"/>
+      <c r="A342" s="1"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="8"/>
+      <c r="A343" s="1"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="8"/>
+      <c r="A344" s="1"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="8"/>
+      <c r="A345" s="1"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="8"/>
+      <c r="A346" s="1"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="8"/>
+      <c r="A347" s="1"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="8"/>
+      <c r="A348" s="1"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="8"/>
+      <c r="A349" s="1"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="8"/>
+      <c r="A350" s="1"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="8"/>
+      <c r="A351" s="1"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="8"/>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="8"/>
+      <c r="A353" s="1"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="8"/>
+      <c r="A354" s="1"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="8"/>
+      <c r="A355" s="1"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="8"/>
+      <c r="A356" s="1"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="8"/>
+      <c r="A357" s="1"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="8"/>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="8"/>
+      <c r="A359" s="1"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="8"/>
+      <c r="A360" s="1"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="8"/>
+      <c r="A361" s="1"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="8"/>
+      <c r="A362" s="1"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="8"/>
+      <c r="A363" s="1"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="8"/>
+      <c r="A364" s="1"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="8"/>
+      <c r="A365" s="1"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="8"/>
+      <c r="A366" s="1"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="8"/>
+      <c r="A367" s="1"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="8"/>
+      <c r="A368" s="1"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="8"/>
+      <c r="A369" s="1"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="8"/>
+      <c r="A370" s="1"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="8"/>
+      <c r="A371" s="1"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="8"/>
+      <c r="A372" s="1"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="8"/>
+      <c r="A373" s="1"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="8"/>
+      <c r="A374" s="1"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="8"/>
+      <c r="A375" s="1"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="8"/>
+      <c r="A376" s="1"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="8"/>
+      <c r="A377" s="1"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="8"/>
+      <c r="A378" s="1"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="8"/>
+      <c r="A379" s="1"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="8"/>
+      <c r="A380" s="1"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="8"/>
+      <c r="A381" s="1"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="8"/>
+      <c r="A382" s="1"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="8"/>
+      <c r="A383" s="1"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="8"/>
+      <c r="A384" s="1"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="8"/>
+      <c r="A385" s="1"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="8"/>
+      <c r="A386" s="1"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="8"/>
+      <c r="A387" s="1"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="8"/>
+      <c r="A388" s="1"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="8"/>
+      <c r="A389" s="1"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="8"/>
+      <c r="A390" s="1"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="8"/>
+      <c r="A391" s="1"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="8"/>
+      <c r="A392" s="1"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="8"/>
+      <c r="A393" s="1"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="8"/>
+      <c r="A394" s="1"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="8"/>
+      <c r="A395" s="1"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="8"/>
+      <c r="A396" s="1"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="8"/>
+      <c r="A397" s="1"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="8"/>
+      <c r="A398" s="1"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="8"/>
+      <c r="A399" s="1"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="8"/>
+      <c r="A400" s="1"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="8"/>
+      <c r="A401" s="1"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="8"/>
+      <c r="A402" s="1"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="8"/>
+      <c r="A403" s="1"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="8"/>
+      <c r="A404" s="1"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="8"/>
+      <c r="A405" s="1"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="8"/>
+      <c r="A406" s="1"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="8"/>
+      <c r="A407" s="1"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="8"/>
+      <c r="A408" s="1"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="8"/>
+      <c r="A409" s="1"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="8"/>
+      <c r="A410" s="1"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="8"/>
+      <c r="A411" s="1"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="8"/>
+      <c r="A412" s="1"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="8"/>
+      <c r="A413" s="1"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="8"/>
+      <c r="A414" s="1"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="8"/>
+      <c r="A415" s="1"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="8"/>
+      <c r="A416" s="1"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="8"/>
+      <c r="A417" s="1"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="8"/>
+      <c r="A418" s="1"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="8"/>
+      <c r="A419" s="1"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="8"/>
+      <c r="A420" s="1"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="8"/>
+      <c r="A421" s="1"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="8"/>
+      <c r="A422" s="1"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="8"/>
+      <c r="A423" s="1"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="8"/>
+      <c r="A424" s="1"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="8"/>
+      <c r="A425" s="1"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="8"/>
+      <c r="A426" s="1"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="8"/>
+      <c r="A427" s="1"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="8"/>
+      <c r="A428" s="1"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="8"/>
+      <c r="A429" s="1"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="8"/>
+      <c r="A430" s="1"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="8"/>
+      <c r="A431" s="1"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="8"/>
+      <c r="A432" s="1"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="8"/>
+      <c r="A433" s="1"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="8"/>
+      <c r="A434" s="1"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="8"/>
+      <c r="A435" s="1"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="8"/>
+      <c r="A436" s="1"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="8"/>
+      <c r="A437" s="1"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="8"/>
+      <c r="A438" s="1"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="8"/>
+      <c r="A439" s="1"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="8"/>
+      <c r="A440" s="1"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="8"/>
+      <c r="A441" s="1"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="8"/>
+      <c r="A442" s="1"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="8"/>
+      <c r="A443" s="1"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="8"/>
+      <c r="A444" s="1"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="8"/>
+      <c r="A445" s="1"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="8"/>
+      <c r="A446" s="1"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="8"/>
+      <c r="A447" s="1"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="8"/>
+      <c r="A448" s="1"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="8"/>
+      <c r="A449" s="1"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="8"/>
+      <c r="A450" s="1"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="8"/>
+      <c r="A451" s="1"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="8"/>
+      <c r="A452" s="1"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="8"/>
+      <c r="A453" s="1"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="8"/>
+      <c r="A454" s="1"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="8"/>
+      <c r="A455" s="1"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="8"/>
+      <c r="A456" s="1"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="8"/>
+      <c r="A457" s="1"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="8"/>
+      <c r="A458" s="1"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="8"/>
+      <c r="A459" s="1"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="8"/>
+      <c r="A460" s="1"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="8"/>
+      <c r="A461" s="1"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="8"/>
+      <c r="A462" s="1"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="8"/>
+      <c r="A463" s="1"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="8"/>
+      <c r="A464" s="1"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="8"/>
+      <c r="A465" s="1"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="8"/>
+      <c r="A466" s="1"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="8"/>
+      <c r="A467" s="1"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="8"/>
+      <c r="A468" s="1"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="8"/>
+      <c r="A469" s="1"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="8"/>
+      <c r="A470" s="1"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="8"/>
+      <c r="A471" s="1"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="8"/>
+      <c r="A472" s="1"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="8"/>
+      <c r="A473" s="1"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="8"/>
+      <c r="A474" s="1"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="8"/>
+      <c r="A475" s="1"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="8"/>
+      <c r="A476" s="1"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="8"/>
+      <c r="A477" s="1"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="8"/>
+      <c r="A478" s="1"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="8"/>
+      <c r="A479" s="1"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="8"/>
+      <c r="A480" s="1"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="8"/>
+      <c r="A481" s="1"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="8"/>
+      <c r="A482" s="1"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="8"/>
+      <c r="A483" s="1"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="8"/>
+      <c r="A484" s="1"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="8"/>
+      <c r="A485" s="1"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="8"/>
+      <c r="A486" s="1"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="8"/>
+      <c r="A487" s="1"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="8"/>
+      <c r="A488" s="1"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="8"/>
+      <c r="A489" s="1"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="8"/>
+      <c r="A490" s="1"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="8"/>
+      <c r="A491" s="1"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="8"/>
+      <c r="A492" s="1"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="8"/>
+      <c r="A493" s="1"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="8"/>
+      <c r="A494" s="1"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="8"/>
+      <c r="A495" s="1"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="8"/>
+      <c r="A496" s="1"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="8"/>
+      <c r="A497" s="1"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="8"/>
+      <c r="A498" s="1"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="8"/>
+      <c r="A499" s="1"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="8"/>
+      <c r="A500" s="1"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="8"/>
+      <c r="A501" s="1"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="8"/>
+      <c r="A502" s="1"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="8"/>
+      <c r="A503" s="1"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="8"/>
+      <c r="A504" s="1"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="8"/>
+      <c r="A505" s="1"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="8"/>
+      <c r="A506" s="1"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="8"/>
+      <c r="A507" s="1"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="8"/>
+      <c r="A508" s="1"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="8"/>
+      <c r="A509" s="1"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="8"/>
+      <c r="A510" s="1"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="8"/>
+      <c r="A511" s="1"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="8"/>
+      <c r="A512" s="1"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="8"/>
+      <c r="A513" s="1"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="8"/>
+      <c r="A514" s="1"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="8"/>
+      <c r="A515" s="1"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="8"/>
+      <c r="A516" s="1"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="8"/>
+      <c r="A517" s="1"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="8"/>
+      <c r="A518" s="1"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="8"/>
+      <c r="A519" s="1"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="8"/>
+      <c r="A520" s="1"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="8"/>
+      <c r="A521" s="1"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="8"/>
+      <c r="A522" s="1"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="8"/>
+      <c r="A523" s="1"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="8"/>
+      <c r="A524" s="1"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="8"/>
+      <c r="A525" s="1"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="8"/>
+      <c r="A526" s="1"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="8"/>
+      <c r="A527" s="1"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="8"/>
+      <c r="A528" s="1"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="8"/>
+      <c r="A529" s="1"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="8"/>
+      <c r="A530" s="1"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="8"/>
+      <c r="A531" s="1"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="8"/>
+      <c r="A532" s="1"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="8"/>
+      <c r="A533" s="1"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="8"/>
+      <c r="A534" s="1"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="8"/>
+      <c r="A535" s="1"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="8"/>
+      <c r="A536" s="1"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="8"/>
+      <c r="A537" s="1"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="8"/>
+      <c r="A538" s="1"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="8"/>
+      <c r="A539" s="1"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="8"/>
+      <c r="A540" s="1"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="8"/>
+      <c r="A541" s="1"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="8"/>
+      <c r="A542" s="1"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="8"/>
+      <c r="A543" s="1"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="8"/>
+      <c r="A544" s="1"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="8"/>
+      <c r="A545" s="1"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="8"/>
+      <c r="A546" s="1"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="8"/>
+      <c r="A547" s="1"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="8"/>
+      <c r="A548" s="1"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="8"/>
+      <c r="A549" s="1"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="8"/>
+      <c r="A550" s="1"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="8"/>
+      <c r="A551" s="1"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="8"/>
+      <c r="A552" s="1"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="8"/>
+      <c r="A553" s="1"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="8"/>
+      <c r="A554" s="1"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="8"/>
+      <c r="A555" s="1"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="8"/>
+      <c r="A556" s="1"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="8"/>
+      <c r="A557" s="1"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="8"/>
+      <c r="A558" s="1"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="8"/>
+      <c r="A559" s="1"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="8"/>
+      <c r="A560" s="1"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="8"/>
+      <c r="A561" s="1"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="8"/>
+      <c r="A562" s="1"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="8"/>
+      <c r="A563" s="1"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="8"/>
+      <c r="A564" s="1"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="8"/>
+      <c r="A565" s="1"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="8"/>
+      <c r="A566" s="1"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="8"/>
+      <c r="A567" s="1"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="8"/>
+      <c r="A568" s="1"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="8"/>
+      <c r="A569" s="1"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="8"/>
+      <c r="A570" s="1"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="8"/>
+      <c r="A571" s="1"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="8"/>
+      <c r="A572" s="1"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="8"/>
+      <c r="A573" s="1"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="8"/>
+      <c r="A574" s="1"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="8"/>
+      <c r="A575" s="1"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="8"/>
+      <c r="A576" s="1"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="8"/>
+      <c r="A577" s="1"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="8"/>
+      <c r="A578" s="1"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="8"/>
+      <c r="A579" s="1"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="8"/>
+      <c r="A580" s="1"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="8"/>
+      <c r="A581" s="1"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="8"/>
+      <c r="A582" s="1"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="8"/>
+      <c r="A583" s="1"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="8"/>
+      <c r="A584" s="1"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="8"/>
+      <c r="A585" s="1"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="8"/>
+      <c r="A586" s="1"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="8"/>
+      <c r="A587" s="1"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="8"/>
+      <c r="A588" s="1"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="8"/>
+      <c r="A589" s="1"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="8"/>
+      <c r="A590" s="1"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="8"/>
+      <c r="A591" s="1"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="8"/>
+      <c r="A592" s="1"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="8"/>
+      <c r="A593" s="1"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="8"/>
+      <c r="A594" s="1"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="8"/>
+      <c r="A595" s="1"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="8"/>
+      <c r="A596" s="1"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="8"/>
+      <c r="A597" s="1"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="8"/>
+      <c r="A598" s="1"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="8"/>
+      <c r="A599" s="1"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="8"/>
+      <c r="A600" s="1"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="8"/>
+      <c r="A601" s="1"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="8"/>
+      <c r="A602" s="1"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="8"/>
+      <c r="A603" s="1"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="8"/>
+      <c r="A604" s="1"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="8"/>
+      <c r="A605" s="1"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="8"/>
+      <c r="A606" s="1"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="8"/>
+      <c r="A607" s="1"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="8"/>
+      <c r="A608" s="1"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="8"/>
+      <c r="A609" s="1"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="8"/>
+      <c r="A610" s="1"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="8"/>
+      <c r="A611" s="1"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="8"/>
+      <c r="A612" s="1"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="8"/>
+      <c r="A613" s="1"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="8"/>
+      <c r="A614" s="1"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="8"/>
+      <c r="A615" s="1"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="8"/>
+      <c r="A616" s="1"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="8"/>
+      <c r="A617" s="1"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="8"/>
+      <c r="A618" s="1"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="8"/>
+      <c r="A619" s="1"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="8"/>
+      <c r="A620" s="1"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="8"/>
+      <c r="A621" s="1"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="8"/>
+      <c r="A622" s="1"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="8"/>
+      <c r="A623" s="1"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="8"/>
+      <c r="A624" s="1"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="8"/>
+      <c r="A625" s="1"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="8"/>
+      <c r="A626" s="1"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="8"/>
+      <c r="A627" s="1"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="8"/>
+      <c r="A628" s="1"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="8"/>
+      <c r="A629" s="1"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="8"/>
+      <c r="A630" s="1"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="8"/>
+      <c r="A631" s="1"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="8"/>
+      <c r="A632" s="1"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="8"/>
+      <c r="A633" s="1"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="8"/>
+      <c r="A634" s="1"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="8"/>
+      <c r="A635" s="1"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="8"/>
+      <c r="A636" s="1"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="8"/>
+      <c r="A637" s="1"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="8"/>
+      <c r="A638" s="1"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="8"/>
+      <c r="A639" s="1"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="8"/>
+      <c r="A640" s="1"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="8"/>
+      <c r="A641" s="1"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="8"/>
+      <c r="A642" s="1"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="8"/>
+      <c r="A643" s="1"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="8"/>
+      <c r="A644" s="1"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="8"/>
+      <c r="A645" s="1"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="8"/>
+      <c r="A646" s="1"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="8"/>
+      <c r="A647" s="1"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="8"/>
+      <c r="A648" s="1"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="8"/>
+      <c r="A649" s="1"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="8"/>
+      <c r="A650" s="1"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="8"/>
+      <c r="A651" s="1"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="8"/>
+      <c r="A652" s="1"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="8"/>
+      <c r="A653" s="1"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="8"/>
+      <c r="A654" s="1"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="8"/>
+      <c r="A655" s="1"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="8"/>
+      <c r="A656" s="1"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="8"/>
+      <c r="A657" s="1"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="8"/>
+      <c r="A658" s="1"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="8"/>
+      <c r="A659" s="1"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="8"/>
+      <c r="A660" s="1"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="8"/>
+      <c r="A661" s="1"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="8"/>
+      <c r="A662" s="1"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="8"/>
+      <c r="A663" s="1"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="8"/>
+      <c r="A664" s="1"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="8"/>
+      <c r="A665" s="1"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="8"/>
+      <c r="A666" s="1"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="8"/>
+      <c r="A667" s="1"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="8"/>
+      <c r="A668" s="1"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="8"/>
+      <c r="A669" s="1"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="8"/>
+      <c r="A670" s="1"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="8"/>
+      <c r="A671" s="1"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="8"/>
+      <c r="A672" s="1"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="8"/>
+      <c r="A673" s="1"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="8"/>
+      <c r="A674" s="1"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="8"/>
+      <c r="A675" s="1"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="8"/>
+      <c r="A676" s="1"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="8"/>
+      <c r="A677" s="1"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="8"/>
+      <c r="A678" s="1"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="8"/>
+      <c r="A679" s="1"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="8"/>
+      <c r="A680" s="1"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="8"/>
+      <c r="A681" s="1"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="8"/>
+      <c r="A682" s="1"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="8"/>
+      <c r="A683" s="1"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="8"/>
+      <c r="A684" s="1"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="8"/>
+      <c r="A685" s="1"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="8"/>
+      <c r="A686" s="1"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="8"/>
+      <c r="A687" s="1"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="8"/>
+      <c r="A688" s="1"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="8"/>
+      <c r="A689" s="1"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="8"/>
+      <c r="A690" s="1"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="8"/>
+      <c r="A691" s="1"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="8"/>
+      <c r="A692" s="1"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="8"/>
+      <c r="A693" s="1"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="8"/>
+      <c r="A694" s="1"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="8"/>
+      <c r="A695" s="1"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="8"/>
+      <c r="A696" s="1"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="8"/>
+      <c r="A697" s="1"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="8"/>
+      <c r="A698" s="1"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="8"/>
+      <c r="A699" s="1"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="8"/>
+      <c r="A700" s="1"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="8"/>
+      <c r="A701" s="1"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="8"/>
+      <c r="A702" s="1"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="8"/>
+      <c r="A703" s="1"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="8"/>
+      <c r="A704" s="1"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="8"/>
+      <c r="A705" s="1"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="8"/>
+      <c r="A706" s="1"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="8"/>
+      <c r="A707" s="1"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="8"/>
+      <c r="A708" s="1"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="8"/>
+      <c r="A709" s="1"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="8"/>
+      <c r="A710" s="1"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="8"/>
+      <c r="A711" s="1"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="8"/>
+      <c r="A712" s="1"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="8"/>
+      <c r="A713" s="1"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="8"/>
+      <c r="A714" s="1"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="8"/>
+      <c r="A715" s="1"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="8"/>
+      <c r="A716" s="1"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="8"/>
+      <c r="A717" s="1"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="8"/>
+      <c r="A718" s="1"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="8"/>
+      <c r="A719" s="1"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="8"/>
+      <c r="A720" s="1"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="8"/>
+      <c r="A721" s="1"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="8"/>
+      <c r="A722" s="1"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="8"/>
+      <c r="A723" s="1"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="8"/>
+      <c r="A724" s="1"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="8"/>
+      <c r="A725" s="1"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="8"/>
+      <c r="A726" s="1"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="8"/>
+      <c r="A727" s="1"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="8"/>
+      <c r="A728" s="1"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="8"/>
+      <c r="A729" s="1"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="8"/>
+      <c r="A730" s="1"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="8"/>
+      <c r="A731" s="1"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="8"/>
+      <c r="A732" s="1"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="8"/>
+      <c r="A733" s="1"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="8"/>
+      <c r="A734" s="1"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="8"/>
+      <c r="A735" s="1"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="8"/>
+      <c r="A736" s="1"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="8"/>
+      <c r="A737" s="1"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="8"/>
+      <c r="A738" s="1"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="8"/>
+      <c r="A739" s="1"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="8"/>
+      <c r="A740" s="1"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="8"/>
+      <c r="A741" s="1"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="8"/>
+      <c r="A742" s="1"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="8"/>
+      <c r="A743" s="1"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="8"/>
+      <c r="A744" s="1"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="8"/>
+      <c r="A745" s="1"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="8"/>
+      <c r="A746" s="1"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="8"/>
+      <c r="A747" s="1"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="8"/>
+      <c r="A748" s="1"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="8"/>
+      <c r="A749" s="1"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="8"/>
+      <c r="A750" s="1"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="8"/>
+      <c r="A751" s="1"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="8"/>
+      <c r="A752" s="1"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="8"/>
+      <c r="A753" s="1"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="8"/>
+      <c r="A754" s="1"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="8"/>
+      <c r="A755" s="1"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="8"/>
+      <c r="A756" s="1"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="8"/>
+      <c r="A757" s="1"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="8"/>
+      <c r="A758" s="1"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="8"/>
+      <c r="A759" s="1"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="8"/>
+      <c r="A760" s="1"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="8"/>
+      <c r="A761" s="1"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="8"/>
+      <c r="A762" s="1"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="8"/>
+      <c r="A763" s="1"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="8"/>
+      <c r="A764" s="1"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="8"/>
+      <c r="A765" s="1"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="8"/>
+      <c r="A766" s="1"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="8"/>
+      <c r="A767" s="1"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="8"/>
+      <c r="A768" s="1"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="8"/>
+      <c r="A769" s="1"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="8"/>
+      <c r="A770" s="1"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="8"/>
+      <c r="A771" s="1"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="8"/>
+      <c r="A772" s="1"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="8"/>
+      <c r="A773" s="1"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="8"/>
+      <c r="A774" s="1"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="8"/>
+      <c r="A775" s="1"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="8"/>
+      <c r="A776" s="1"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="8"/>
+      <c r="A777" s="1"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="8"/>
+      <c r="A778" s="1"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="8"/>
+      <c r="A779" s="1"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="8"/>
+      <c r="A780" s="1"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="8"/>
+      <c r="A781" s="1"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="8"/>
+      <c r="A782" s="1"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="8"/>
+      <c r="A783" s="1"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="8"/>
+      <c r="A784" s="1"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="8"/>
+      <c r="A785" s="1"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="8"/>
+      <c r="A786" s="1"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="8"/>
+      <c r="A787" s="1"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="8"/>
+      <c r="A788" s="1"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="8"/>
+      <c r="A789" s="1"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="8"/>
+      <c r="A790" s="1"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="8"/>
+      <c r="A791" s="1"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="8"/>
+      <c r="A792" s="1"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="8"/>
+      <c r="A793" s="1"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="8"/>
+      <c r="A794" s="1"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="8"/>
+      <c r="A795" s="1"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="8"/>
+      <c r="A796" s="1"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="8"/>
+      <c r="A797" s="1"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="8"/>
+      <c r="A798" s="1"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="8"/>
+      <c r="A799" s="1"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="8"/>
+      <c r="A800" s="1"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="8"/>
+      <c r="A801" s="1"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="8"/>
+      <c r="A802" s="1"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="8"/>
+      <c r="A803" s="1"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="8"/>
+      <c r="A804" s="1"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="8"/>
+      <c r="A805" s="1"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="8"/>
+      <c r="A806" s="1"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="8"/>
+      <c r="A807" s="1"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="8"/>
+      <c r="A808" s="1"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="8"/>
+      <c r="A809" s="1"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="8"/>
+      <c r="A810" s="1"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="8"/>
+      <c r="A811" s="1"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="8"/>
+      <c r="A812" s="1"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="8"/>
+      <c r="A813" s="1"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="8"/>
+      <c r="A814" s="1"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="8"/>
+      <c r="A815" s="1"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="8"/>
+      <c r="A816" s="1"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="8"/>
+      <c r="A817" s="1"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="8"/>
+      <c r="A818" s="1"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="8"/>
+      <c r="A819" s="1"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="8"/>
+      <c r="A820" s="1"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="8"/>
+      <c r="A821" s="1"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="8"/>
+      <c r="A822" s="1"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="8"/>
+      <c r="A823" s="1"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="8"/>
+      <c r="A824" s="1"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="8"/>
+      <c r="A825" s="1"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="8"/>
+      <c r="A826" s="1"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="8"/>
+      <c r="A827" s="1"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="8"/>
+      <c r="A828" s="1"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="8"/>
+      <c r="A829" s="1"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="8"/>
+      <c r="A830" s="1"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="8"/>
+      <c r="A831" s="1"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="8"/>
+      <c r="A832" s="1"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="8"/>
+      <c r="A833" s="1"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="8"/>
+      <c r="A834" s="1"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="8"/>
+      <c r="A835" s="1"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="8"/>
+      <c r="A836" s="1"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="8"/>
+      <c r="A837" s="1"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="8"/>
+      <c r="A838" s="1"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="8"/>
+      <c r="A839" s="1"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="8"/>
+      <c r="A840" s="1"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="8"/>
+      <c r="A841" s="1"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="8"/>
+      <c r="A842" s="1"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="8"/>
+      <c r="A843" s="1"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="8"/>
+      <c r="A844" s="1"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="8"/>
+      <c r="A845" s="1"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="8"/>
+      <c r="A846" s="1"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="8"/>
+      <c r="A847" s="1"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="8"/>
+      <c r="A848" s="1"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="8"/>
+      <c r="A849" s="1"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="8"/>
+      <c r="A850" s="1"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="8"/>
+      <c r="A851" s="1"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="8"/>
+      <c r="A852" s="1"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="8"/>
+      <c r="A853" s="1"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="8"/>
+      <c r="A854" s="1"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="8"/>
+      <c r="A855" s="1"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="8"/>
+      <c r="A856" s="1"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="8"/>
+      <c r="A857" s="1"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="8"/>
+      <c r="A858" s="1"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="8"/>
+      <c r="A859" s="1"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="8"/>
+      <c r="A860" s="1"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="8"/>
+      <c r="A861" s="1"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="8"/>
+      <c r="A862" s="1"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="8"/>
+      <c r="A863" s="1"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="8"/>
+      <c r="A864" s="1"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="8"/>
+      <c r="A865" s="1"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="8"/>
+      <c r="A866" s="1"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="8"/>
+      <c r="A867" s="1"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="8"/>
+      <c r="A868" s="1"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="8"/>
+      <c r="A869" s="1"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="8"/>
+      <c r="A870" s="1"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="8"/>
+      <c r="A871" s="1"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="8"/>
+      <c r="A872" s="1"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="8"/>
+      <c r="A873" s="1"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="8"/>
+      <c r="A874" s="1"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="8"/>
+      <c r="A875" s="1"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="8"/>
+      <c r="A876" s="1"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="8"/>
+      <c r="A877" s="1"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="8"/>
+      <c r="A878" s="1"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="8"/>
+      <c r="A879" s="1"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="8"/>
+      <c r="A880" s="1"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="8"/>
+      <c r="A881" s="1"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="8"/>
+      <c r="A882" s="1"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="8"/>
+      <c r="A883" s="1"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="8"/>
+      <c r="A884" s="1"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="8"/>
+      <c r="A885" s="1"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="8"/>
+      <c r="A886" s="1"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="8"/>
+      <c r="A887" s="1"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="8"/>
+      <c r="A888" s="1"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="8"/>
+      <c r="A889" s="1"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="8"/>
+      <c r="A890" s="1"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="8"/>
+      <c r="A891" s="1"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="8"/>
+      <c r="A892" s="1"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="8"/>
+      <c r="A893" s="1"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="8"/>
+      <c r="A894" s="1"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="8"/>
+      <c r="A895" s="1"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="8"/>
+      <c r="A896" s="1"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="8"/>
+      <c r="A897" s="1"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="8"/>
+      <c r="A898" s="1"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="8"/>
+      <c r="A899" s="1"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="8"/>
+      <c r="A900" s="1"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="8"/>
+      <c r="A901" s="1"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="8"/>
+      <c r="A902" s="1"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="8"/>
+      <c r="A903" s="1"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="8"/>
+      <c r="A904" s="1"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="8"/>
+      <c r="A905" s="1"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="8"/>
+      <c r="A906" s="1"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="8"/>
+      <c r="A907" s="1"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="8"/>
+      <c r="A908" s="1"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="8"/>
+      <c r="A909" s="1"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="8"/>
+      <c r="A910" s="1"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="8"/>
+      <c r="A911" s="1"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="8"/>
+      <c r="A912" s="1"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="8"/>
+      <c r="A913" s="1"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="8"/>
+      <c r="A914" s="1"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="8"/>
+      <c r="A915" s="1"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="8"/>
+      <c r="A916" s="1"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="8"/>
+      <c r="A917" s="1"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="8"/>
+      <c r="A918" s="1"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="8"/>
+      <c r="A919" s="1"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="8"/>
+      <c r="A920" s="1"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="8"/>
+      <c r="A921" s="1"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="8"/>
+      <c r="A922" s="1"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="8"/>
+      <c r="A923" s="1"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="8"/>
+      <c r="A924" s="1"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="8"/>
+      <c r="A925" s="1"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="8"/>
+      <c r="A926" s="1"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="8"/>
+      <c r="A927" s="1"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="8"/>
+      <c r="A928" s="1"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="8"/>
+      <c r="A929" s="1"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="8"/>
+      <c r="A930" s="1"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="8"/>
+      <c r="A931" s="1"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="8"/>
+      <c r="A932" s="1"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="8"/>
+      <c r="A933" s="1"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="8"/>
+      <c r="A934" s="1"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="8"/>
+      <c r="A935" s="1"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="8"/>
+      <c r="A936" s="1"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="8"/>
+      <c r="A937" s="1"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="8"/>
+      <c r="A938" s="1"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="8"/>
+      <c r="A939" s="1"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="8"/>
+      <c r="A940" s="1"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="8"/>
+      <c r="A941" s="1"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="8"/>
+      <c r="A942" s="1"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="8"/>
+      <c r="A943" s="1"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="8"/>
+      <c r="A944" s="1"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="8"/>
+      <c r="A945" s="1"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="8"/>
+      <c r="A946" s="1"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="8"/>
+      <c r="A947" s="1"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="8"/>
+      <c r="A948" s="1"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="8"/>
+      <c r="A949" s="1"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="8"/>
+      <c r="A950" s="1"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="8"/>
+      <c r="A951" s="1"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="8"/>
+      <c r="A952" s="1"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="8"/>
+      <c r="A953" s="1"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="8"/>
+      <c r="A954" s="1"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="8"/>
+      <c r="A955" s="1"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="8"/>
+      <c r="A956" s="1"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="8"/>
+      <c r="A957" s="1"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="8"/>
+      <c r="A958" s="1"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="8"/>
+      <c r="A959" s="1"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="8"/>
+      <c r="A960" s="1"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="8"/>
+      <c r="A961" s="1"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="8"/>
+      <c r="A962" s="1"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="8"/>
+      <c r="A963" s="1"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="8"/>
+      <c r="A964" s="1"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="8"/>
+      <c r="A965" s="1"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="8"/>
+      <c r="A966" s="1"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="8"/>
+      <c r="A967" s="1"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="8"/>
+      <c r="A968" s="1"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="8"/>
+      <c r="A969" s="1"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="8"/>
+      <c r="A970" s="1"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="8"/>
+      <c r="A971" s="1"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="8"/>
+      <c r="A972" s="1"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="8"/>
+      <c r="A973" s="1"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="8"/>
+      <c r="A974" s="1"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="8"/>
+      <c r="A975" s="1"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="8"/>
+      <c r="A976" s="1"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="8"/>
+      <c r="A977" s="1"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="8"/>
+      <c r="A978" s="1"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="8"/>
+      <c r="A979" s="1"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="8"/>
+      <c r="A980" s="1"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="8"/>
+      <c r="A981" s="1"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="8"/>
+      <c r="A982" s="1"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="8"/>
+      <c r="A983" s="1"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="8"/>
+      <c r="A984" s="1"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="8"/>
+      <c r="A985" s="1"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="8"/>
+      <c r="A986" s="1"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="8"/>
+      <c r="A987" s="1"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="8"/>
+      <c r="A988" s="1"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="8"/>
+      <c r="A989" s="1"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="8"/>
+      <c r="A990" s="1"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="8"/>
+      <c r="A991" s="1"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="8"/>
+      <c r="A992" s="1"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="8"/>
+      <c r="A993" s="1"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="8"/>
+      <c r="A994" s="1"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="8"/>
+      <c r="A995" s="1"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="8"/>
+      <c r="A996" s="1"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="8"/>
+      <c r="A997" s="1"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="8"/>
+      <c r="A998" s="1"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="8"/>
+      <c r="A999" s="1"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="8"/>
+      <c r="A1000" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4358,38 +4515,38 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>118</v>
+      <c r="A1" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>119</v>
+      <c r="A2" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>120</v>
+      <c r="A3" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>121</v>
+      <c r="A4" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>122</v>
+      <c r="A5" s="13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>123</v>
+      <c r="A6" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>124</v>
+      <c r="A7" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
